--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -546,10 +546,10 @@
         <v>0.710353</v>
       </c>
       <c r="I2">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J2">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>0.1042633244247778</v>
+        <v>0.1215515800263333</v>
       </c>
       <c r="R2">
-        <v>0.938369919823</v>
+        <v>1.093964220237</v>
       </c>
       <c r="S2">
-        <v>0.02373835415057015</v>
+        <v>0.02536421803398452</v>
       </c>
       <c r="T2">
-        <v>0.02373835415057015</v>
+        <v>0.02536421803398452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.710353</v>
       </c>
       <c r="I3">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J3">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
         <v>3.705908601731778</v>
@@ -638,10 +638,10 @@
         <v>33.353177415586</v>
       </c>
       <c r="S3">
-        <v>0.8437499122812059</v>
+        <v>0.7733134671550925</v>
       </c>
       <c r="T3">
-        <v>0.843749912281206</v>
+        <v>0.7733134671550925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>0.710353</v>
       </c>
       <c r="I4">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J4">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>0.0003576232714444445</v>
+        <v>0.01151655854844444</v>
       </c>
       <c r="R4">
-        <v>0.003218609443</v>
+        <v>0.103649026936</v>
       </c>
       <c r="S4">
-        <v>8.14225703704517E-05</v>
+        <v>0.00240316499349996</v>
       </c>
       <c r="T4">
-        <v>8.14225703704517E-05</v>
+        <v>0.00240316499349996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.710353</v>
       </c>
       <c r="I5">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J5">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>0.2165016241243333</v>
+        <v>0.3550808391293334</v>
       </c>
       <c r="R5">
-        <v>1.948514617119</v>
+        <v>3.195727552164</v>
       </c>
       <c r="S5">
-        <v>0.04929242622936824</v>
+        <v>0.07409486426598016</v>
       </c>
       <c r="T5">
-        <v>0.04929242622936825</v>
+        <v>0.07409486426598016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.710353</v>
       </c>
       <c r="I6">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J6">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N6">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q6">
-        <v>0.001920715583888889</v>
+        <v>0.002585211351333333</v>
       </c>
       <c r="R6">
-        <v>0.017286440255</v>
+        <v>0.023266902162</v>
       </c>
       <c r="S6">
-        <v>0.0004373026373791529</v>
+        <v>0.0005394571124862772</v>
       </c>
       <c r="T6">
-        <v>0.000437302637379153</v>
+        <v>0.0005394571124862772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H7">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I7">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J7">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N7">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q7">
-        <v>0.009400025179222221</v>
+        <v>0.01725106262933333</v>
       </c>
       <c r="R7">
-        <v>0.08460022661299998</v>
+        <v>0.155259563664</v>
       </c>
       <c r="S7">
-        <v>0.002140168922866467</v>
+        <v>0.003599786310910468</v>
       </c>
       <c r="T7">
-        <v>0.002140168922866468</v>
+        <v>0.003599786310910468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H8">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I8">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J8">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>46.952962</v>
       </c>
       <c r="O8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q8">
-        <v>0.3341120605962222</v>
+        <v>0.5259566463324444</v>
       </c>
       <c r="R8">
-        <v>3.007008545365999</v>
+        <v>4.733609816992</v>
       </c>
       <c r="S8">
-        <v>0.07606960994354252</v>
+        <v>0.1097515890053365</v>
       </c>
       <c r="T8">
-        <v>0.07606960994354253</v>
+        <v>0.1097515890053365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H9">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I9">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J9">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N9">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O9">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P9">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q9">
-        <v>3.224209255555555E-05</v>
+        <v>0.001634473799111111</v>
       </c>
       <c r="R9">
-        <v>0.000290178833</v>
+        <v>0.014710264192</v>
       </c>
       <c r="S9">
-        <v>7.340780814939666E-06</v>
+        <v>0.0003410663177106198</v>
       </c>
       <c r="T9">
-        <v>7.340780814939666E-06</v>
+        <v>0.0003410663177106199</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H10">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I10">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J10">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N10">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q10">
-        <v>0.01951904688766666</v>
+        <v>0.05039442344533334</v>
       </c>
       <c r="R10">
-        <v>0.175671421989</v>
+        <v>0.453549811008</v>
       </c>
       <c r="S10">
-        <v>0.004444036771868958</v>
+        <v>0.01051582499945669</v>
       </c>
       <c r="T10">
-        <v>0.004444036771868958</v>
+        <v>0.01051582499945669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H11">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I11">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J11">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N11">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P11">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q11">
-        <v>0.0001731651561111111</v>
+        <v>0.0003669030293333333</v>
       </c>
       <c r="R11">
-        <v>0.001558486405</v>
+        <v>0.003302127264</v>
       </c>
       <c r="S11">
-        <v>3.942571201314428E-05</v>
+        <v>7.656180554233813E-05</v>
       </c>
       <c r="T11">
-        <v>3.942571201314429E-05</v>
+        <v>7.656180554233814E-05</v>
       </c>
     </row>
   </sheetData>
